--- a/app/GA-Clustering GUI/res/Statistic.xlsx
+++ b/app/GA-Clustering GUI/res/Statistic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Rekap GA" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="158">
   <si>
     <t>Workbook name</t>
   </si>
@@ -517,9 +517,6 @@
     <t>2 jam 32 menit 16 detik</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>1 menit 30 detik</t>
   </si>
   <si>
@@ -648,6 +645,81 @@
   <si>
     <t>1 menit 28 detik</t>
   </si>
+  <si>
+    <t>GA-2019.05.04 11_13_42</t>
+  </si>
+  <si>
+    <t>GA-2019.05.04 11_22_43</t>
+  </si>
+  <si>
+    <t>GA-2019.05.04 11_33_27</t>
+  </si>
+  <si>
+    <t>5 jam 55 menit 40 detik</t>
+  </si>
+  <si>
+    <t>6 jam 3 menit 59 detik</t>
+  </si>
+  <si>
+    <t>6 jam 18 menit 24 detik</t>
+  </si>
+  <si>
+    <t>GA-2019.05.04 15_25_09</t>
+  </si>
+  <si>
+    <t>2 jam 3 menit 35 detik</t>
+  </si>
+  <si>
+    <t>GA-2019.05.04 16_57_52</t>
+  </si>
+  <si>
+    <t>1 jam 26 menit 0 detik</t>
+  </si>
+  <si>
+    <t>GA-2019.05.04 18_02_42</t>
+  </si>
+  <si>
+    <t>GA-2019.05.04 18_08_54</t>
+  </si>
+  <si>
+    <t>5 jam 42 menit 27 detik</t>
+  </si>
+  <si>
+    <t>5 jam 48 menit 31 detik</t>
+  </si>
+  <si>
+    <t>5 jam 57 menit 48 detik</t>
+  </si>
+  <si>
+    <t>2 jam 4 menit 54 detik</t>
+  </si>
+  <si>
+    <t>Rata-rata</t>
+  </si>
+  <si>
+    <t>Standar Deviasi</t>
+  </si>
+  <si>
+    <t>Nilai Maksimum</t>
+  </si>
+  <si>
+    <t>Nilai Minimum</t>
+  </si>
+  <si>
+    <t>intra</t>
+  </si>
+  <si>
+    <t>purity</t>
+  </si>
+  <si>
+    <t>intracluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
 </sst>
 </file>
 
@@ -695,8 +767,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,7 +830,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAA92528-70F8-42FC-8FE8-723C41F135D3}" type="CELLRANGE">
+                    <a:fld id="{4D3E3A4E-8E8C-45E0-8A4B-4F98C78FBD3C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -766,7 +839,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="inEnd"/>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -793,7 +866,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D424C716-8132-4332-8E20-2E5FAC67F5C9}" type="CELLRANGE">
+                    <a:fld id="{A4A34239-DCAD-4607-8B9D-CCCBB00AA4EC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -802,7 +875,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="inEnd"/>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -829,18 +902,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -850,7 +918,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -901,10 +969,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0926666666666667</c:v>
+                  <c:v>1.09266666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4472222222222222E-2</c:v>
+                  <c:v>2.4472222222222201E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,7 +998,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -958,10 +1026,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -991,10 +1056,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1027,12 +1089,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1078,10 +1137,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1111,10 +1167,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1141,12 +1194,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1187,7 +1237,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1224,6 +1278,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bobot!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Waktu (jam)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1237,7 +1302,457 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DDDB157D-2CE4-4521-A402-E5F9CCD7D480}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-E357-41D3-B4B6-5AE31C999284}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F7A0E8F1-945E-498E-B986-F7BDA86AD441}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E357-41D3-B4B6-5AE31C999284}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:noFill/>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bobot!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TF-IDF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frekuensi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bobot!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0926666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7332222222222224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Bobot!$C$2:$C$3</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1 jam 5 menit 33 detik</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2 jam 43 menit 59 detik</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E357-41D3-B4B6-5AE31C999284}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1461341296"/>
+        <c:axId val="1461340464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1461341296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Metode Pembobotan</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1461340464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1461340464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:alpha val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Waktu (jam)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1461341296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1261,7 +1776,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -1278,18 +1792,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1309,7 +1818,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1392,10 +1900,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1409,7 +1914,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1425,10 +1929,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1461,12 +1962,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1512,10 +2010,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1529,7 +2024,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1545,10 +2039,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1575,12 +2066,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1621,7 +2109,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1634,7 +2126,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1677,18 +2169,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1708,7 +2195,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1791,10 +2277,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1803,17 +2286,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Metode</a:t>
+                  <a:t>Metode Pembobotan</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Pembobotan</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1829,10 +2306,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1865,12 +2339,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1916,10 +2387,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1933,7 +2401,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1949,10 +2416,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1979,12 +2443,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2025,7 +2486,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2038,7 +2503,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2081,18 +2546,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2194,10 +2654,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2226,10 +2683,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2262,12 +2716,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2314,10 +2765,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2346,10 +2794,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2376,12 +2821,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2422,7 +2864,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2435,7 +2881,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2483,13 +2929,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7DB337D-0B08-46DA-9FF3-F4CDBB3BF953}" type="CELLRANGE">
+                    <a:fld id="{16ABB282-DCCD-420C-9C61-B55A9AC07473}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2507,7 +2952,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2519,13 +2963,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0AE5733-CC0E-4CB4-A765-83FD8DC98F9A}" type="CELLRANGE">
+                    <a:fld id="{58972D54-20D4-4C4E-86A6-0AE9AA08BE6E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2543,7 +2986,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2555,13 +2997,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9614EF7F-EB18-462D-8B86-D0BE9B48AC9A}" type="CELLRANGE">
+                    <a:fld id="{8BA486C3-BDCE-4F14-BBF4-ABA57BA371A3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2579,7 +3020,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2597,18 +3037,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2628,7 +3063,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2731,10 +3165,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2743,17 +3174,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Probabilitas</a:t>
+                  <a:t>Probabilitas Mutasi</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Mutasi</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2769,10 +3194,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2805,12 +3227,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2856,10 +3275,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2873,7 +3289,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2889,10 +3304,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2919,12 +3331,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2965,7 +3374,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2978,7 +3391,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3015,7 +3428,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3039,7 +3451,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -3056,18 +3467,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3087,7 +3493,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3177,10 +3582,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3194,7 +3596,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3210,10 +3611,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3246,12 +3644,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3297,10 +3692,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3314,7 +3706,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3330,10 +3721,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3360,12 +3748,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3406,7 +3791,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3419,7 +3808,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3462,18 +3851,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3582,10 +3966,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3614,10 +3995,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3650,12 +4028,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3701,10 +4076,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3733,10 +4105,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3763,12 +4132,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3809,7 +4175,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3822,7 +4192,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3865,18 +4235,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3985,10 +4350,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4017,10 +4379,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4053,12 +4412,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4105,10 +4461,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4137,10 +4490,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4167,12 +4517,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4213,7 +4560,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4226,7 +4577,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4274,13 +4625,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE0191E2-0AEF-456D-BF43-399DEFBAFE77}" type="CELLRANGE">
+                    <a:fld id="{12F96BAD-4086-4025-ADBA-890D3D1A2779}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4298,7 +4648,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4310,13 +4659,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F79D52A1-B0EC-4553-B55A-4192148939C3}" type="CELLRANGE">
+                    <a:fld id="{F5C608BE-3A4D-4F58-B66E-FE55849A18A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4334,7 +4682,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4346,13 +4693,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11991969-3A5B-4400-93CA-F5D5316523A3}" type="CELLRANGE">
+                    <a:fld id="{74182C94-F0CE-4BE4-ACD8-AD8BDF7ED51C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4370,7 +4716,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4388,18 +4733,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4419,7 +4759,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4459,13 +4798,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.6507222222222222</c:v>
+                  <c:v>5.9633888888888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0926666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3052777777777775</c:v>
+                  <c:v>2.0817777777777779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4477,13 +4816,13 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>1 jam 39 menit 2 detik</c:v>
+                    <c:v>5 jam 57 menit 48 detik</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1 jam 5 menit 33 detik</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1 jam 33 menit 58 detik</c:v>
+                    <c:v>2 jam 4 menit 54 detik</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4522,10 +4861,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4534,17 +4870,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Individu</a:t>
+                  <a:t>Individu elitisme</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> elitisme</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4560,10 +4890,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4596,12 +4923,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4647,10 +4971,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4664,7 +4985,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4680,10 +5000,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4710,12 +5027,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4756,448 +5070,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C03DC035-0820-4058-B3E5-BBD181F9CCD1}" type="VALUE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-4669-4BAE-9B20-7653AF546388}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Elitisme!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Elitisme!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>771.61924789461079</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1536.1521489346867</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4669-4BAE-9B20-7653AF546388}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1145205695"/>
-        <c:axId val="1145214015"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1145205695"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Individu elitisme</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1145214015"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1145214015"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:alpha val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Intracluster</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1145205695"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5245,6 +5122,39 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C03DC035-0820-4058-B3E5-BBD181F9CCD1}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-4669-4BAE-9B20-7653AF546388}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5253,18 +5163,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5284,7 +5189,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5323,25 +5227,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Elitisme!$E$2:$E$4</c:f>
+              <c:f>Elitisme!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>679.79775322582884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>771.61924789461079</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.333333333333333</c:v>
+                  <c:v>1215.3355162424336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3B66-4F44-9052-5D4E054C03E7}"/>
+              <c16:uniqueId val="{00000001-4669-4BAE-9B20-7653AF546388}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5374,10 +5278,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5391,7 +5292,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5407,10 +5307,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -5443,12 +5340,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5494,10 +5388,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5506,12 +5397,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Iterasi</a:t>
+                  <a:t>Intracluster</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5527,10 +5417,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -5557,12 +5444,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5603,7 +5487,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5659,18 +5547,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5680,7 +5563,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -5730,10 +5613,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>771.61924789461079</c:v>
+                  <c:v>7.7161924789461098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>831.58818607041633</c:v>
+                  <c:v>8.3158818607041596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5745,7 +5628,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -5773,10 +5656,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5806,10 +5686,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -5842,12 +5719,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5893,10 +5767,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5926,10 +5797,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -5956,12 +5824,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6002,7 +5867,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -6058,18 +5927,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6089,7 +5953,390 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Elitisme!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Elitisme!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B66-4F44-9052-5D4E054C03E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1145205695"/>
+        <c:axId val="1145214015"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1145205695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Individu elitisme</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1145214015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1145214015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:alpha val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iterasi</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1145205695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6133,13 +6380,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.826247191011236</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.79838202247191004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35220973782771531</c:v>
+                  <c:v>0.52710112359550565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6179,10 +6426,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6196,7 +6440,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6212,10 +6455,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6248,12 +6488,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6300,10 +6537,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6317,7 +6551,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6333,10 +6566,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6363,12 +6593,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6409,7 +6636,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -6465,18 +6696,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6486,7 +6712,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -6496,7 +6722,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6551,7 +6776,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -6579,10 +6804,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6596,7 +6818,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6612,10 +6833,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6648,12 +6866,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6699,10 +6914,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6716,7 +6928,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6732,10 +6943,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6762,12 +6970,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6808,7 +7013,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -6864,18 +7073,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6885,7 +7089,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -6895,7 +7099,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6935,10 +7138,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.79838202247191004</c:v>
+                  <c:v>0.79838200000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51191102975080294</c:v>
+                  <c:v>0.511911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6950,7 +7153,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -6978,10 +7181,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6995,7 +7195,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7011,10 +7210,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7047,12 +7243,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7098,10 +7291,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7115,7 +7305,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7131,10 +7320,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7161,12 +7347,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7207,7 +7390,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -7221,6 +7408,555 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Waktu (jam)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{14D1745A-A1E1-4576-8E6B-7CFF267E3B99}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.15285535010709903"/>
+                      <c:h val="0.11353305748062133"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-ADE2-408C-A3CD-406BA1BBC9FB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8E3DD80D-9928-454F-B135-BF2E710FC348}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.1209943784651228"/>
+                      <c:h val="0.11682613484298932"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-ADE2-408C-A3CD-406BA1BBC9FB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Rekap KM'!$B$28:$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>GA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>K-means</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rekap KM'!$C$28:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.09266666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4472222222222201E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Rekap KM'!$D$28:$D$29</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>1 jam 5 menit 33 detik</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1 menit 28 detik</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ADE2-408C-A3CD-406BA1BBC9FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Purity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Rekap KM'!$G$28:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.79838200000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.511911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ADE2-408C-A3CD-406BA1BBC9FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1461341296"/>
+        <c:axId val="1461340464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1461341296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algoritma</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1461340464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1461340464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:alpha val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1461341296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7274,7 +8010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D23CCFB-3AB4-4DFF-8C15-80E5A583B56B}" type="CELLRANGE">
+                    <a:fld id="{BC905A17-0F14-4B6E-A77E-B40828665889}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7310,7 +8046,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9374B94-748A-4A13-BC59-9C502CA134FA}" type="CELLRANGE">
+                    <a:fld id="{AB69E277-B7F9-4C22-A041-6E33523BA532}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7346,7 +8082,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D07159D-3142-422C-8E46-75C99B390B62}" type="CELLRANGE">
+                    <a:fld id="{39487EEF-A2C0-473C-9886-1D2406B580EA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7382,18 +8118,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7516,10 +8247,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7549,10 +8277,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7585,12 +8310,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7636,10 +8358,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7669,10 +8388,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7699,12 +8415,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7745,7 +8458,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -7758,7 +8475,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7836,18 +8553,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7957,10 +8669,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7990,10 +8699,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8026,12 +8732,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -8077,10 +8780,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8110,10 +8810,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8140,12 +8837,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -8186,7 +8880,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -8199,7 +8897,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8242,18 +8940,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8362,10 +9055,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8394,10 +9084,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8430,12 +9117,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -8481,10 +9165,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8513,10 +9194,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8543,12 +9221,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -8589,7 +9264,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -8602,7 +9281,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8645,18 +9324,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8765,10 +9439,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8797,10 +9468,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8833,12 +9501,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -8885,10 +9550,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8917,10 +9579,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8947,12 +9606,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -8993,494 +9649,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Bobot!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Waktu (jam)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1A565F68-D269-45CF-8AA1-6DC0F41420E5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-E357-41D3-B4B6-5AE31C999284}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6818676D-6C53-436D-A6BF-4CEB31AA6C87}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-E357-41D3-B4B6-5AE31C999284}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:noFill/>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Bobot!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>TF-IDF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Frekuensi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Bobot!$B$2:$B$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.0926666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7332222222222224</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>Bobot!$C$2:$C$3</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="2"/>
-                  <c:pt idx="0">
-                    <c:v>1 jam 5 menit 33 detik</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2 jam 43 menit 59 detik</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E357-41D3-B4B6-5AE31C999284}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1461341296"/>
-        <c:axId val="1461340464"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1461341296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Metode Pembobotan</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1461340464"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1461340464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:alpha val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Waktu (jam)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1461341296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -10013,6 +10186,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16832,6 +17045,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -20478,6 +21194,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>113379</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21279,10 +22027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21308,7 +22056,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -21439,6 +22187,10 @@
       <c r="E4">
         <v>0.79415730337078649</v>
       </c>
+      <c r="F4">
+        <f>_xlfn.STDEV.P(E2:E6)</f>
+        <v>1.2280770376703673E-2</v>
+      </c>
       <c r="G4">
         <v>5</v>
       </c>
@@ -21742,7 +22494,8 @@
         <v>100</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <f>(L7-'Rekap GA'!C46)</f>
+        <v>-17.93213605147924</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -22532,10 +23285,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" t="s">
         <v>122</v>
-      </c>
-      <c r="B31" t="s">
-        <v>123</v>
       </c>
       <c r="C31">
         <v>1726.00093067131</v>
@@ -22573,311 +23326,207 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="e">
-        <f ca="1">INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B14")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C32" t="e">
-        <f t="shared" ref="C32:C42" ca="1" si="0">INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B15")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D32" t="e">
-        <f t="shared" ref="D32:D42" ca="1" si="1">INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B16")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E32" t="e">
-        <f t="shared" ref="E32:E42" ca="1" si="2">(MAX(COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!A20:A2000"),"*entertainment*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!A20:A2000"),"*tech*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!A20:A2000"),"*sport*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!A20:A2000"),"*business*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!A20:A2000"),"*politics*"))+
-MAX(COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B20:B2000"),"*entertainment*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B20:B2000"),"*tech*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B20:B2000"),"*sport*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B20:B2000"),"*business*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B20:B2000"),"*politics*"))+
-MAX(COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!C20:C2000"),"*entertainment*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!C20:C2000"),"*tech*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!C20:C2000"),"*sport*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!C20:C2000"),"*business*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!C20:C2000"),"*politics*"))+
-MAX(COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!D20:D2000"),"*entertainment*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!D20:D2000"),"*tech*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!D20:D2000"),"*sport*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!D20:D2000"),"*business*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!D20:D2000"),"*politics*"))+
-MAX(COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!E20:E2000"),"*entertainment*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!E20:E2000"),"*tech*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!E20:E2000"),"*sport*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!E20:E2000"),"*business*"),
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!E20:E2000"),"*politics*")))
-/
-(COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!A20:A2000"),"*entertainment*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!A20:A2000"),"*tech*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!A20:A2000"),"*sport*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!A20:A2000"),"*business*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!A20:A2000"),"*politics*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B20:B2000"),"*entertainment*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B20:B2000"),"*tech*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B20:B2000"),"*sport*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B20:B2000"),"*business*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B20:B2000"),"*politics*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!C20:C2000"),"*entertainment*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!C20:C2000"),"*tech*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!C20:C2000"),"*sport*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!C20:C2000"),"*business*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!C20:C2000"),"*politics*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!D20:D2000"),"*entertainment*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!D20:D2000"),"*tech*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!D20:D2000"),"*sport*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!D20:D2000"),"*business*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!D20:D2000"),"*politics*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!E20:E2000"),"*entertainment*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!E20:E2000"),"*tech*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!E20:E2000"),"*sport*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!E20:E2000"),"*business*")+
-COUNTIF(INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!E20:E2000"),"*politics*"))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G32" t="e">
-        <f t="shared" ref="G32:G42" ca="1" si="3">INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B4")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H32" t="e">
-        <f t="shared" ref="H32:H42" ca="1" si="4">INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B5")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I32" t="e">
-        <f t="shared" ref="I32:I42" ca="1" si="5">INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B6")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J32" t="e">
-        <f t="shared" ref="J32:J42" ca="1" si="6">INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B7")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K32" t="e">
-        <f t="shared" ref="K32:K42" ca="1" si="7">INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B8")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L32" t="e">
-        <f t="shared" ref="L32:L42" ca="1" si="8">INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B9")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M32" t="e">
-        <f t="shared" ref="M32:M42" ca="1" si="9">INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B10")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N32" t="e">
-        <f t="shared" ref="N32:N42" ca="1" si="10">INDIRECT("'["&amp;$A32&amp;".csv]"&amp;$A32&amp;"'!B11")</f>
-        <v>#REF!</v>
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32">
+        <v>775.26511105291695</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>0.78921348314606743</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32">
+        <v>0.05</v>
+      </c>
+      <c r="K32">
+        <v>15</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" t="e">
-        <f t="shared" ref="B33:B42" ca="1" si="11">INDIRECT("'["&amp;$A33&amp;".csv]"&amp;$A33&amp;"'!B14")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C33" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D33" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E33" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G33" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H33" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I33" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J33" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K33" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L33" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M33" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N33" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#REF!</v>
+        <v>134</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33">
+        <v>773.49578371935502</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>0.80089887640449442</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33">
+        <v>0.05</v>
+      </c>
+      <c r="K33">
+        <v>15</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C34" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D34" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E34" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G34" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H34" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I34" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J34" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K34" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L34" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M34" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N34" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#REF!</v>
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34">
+        <v>775.57194715969399</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>0.79550561797752806</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34">
+        <v>0.05</v>
+      </c>
+      <c r="K34">
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B35" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C35" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D35" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E35" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G35" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H35" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I35" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J35" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K35" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L35" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M35" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N35" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#REF!</v>
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35">
+        <v>540.87048436125895</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>0.97707865168539321</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35">
+        <v>0.05</v>
+      </c>
+      <c r="K35">
+        <v>15</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B36" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C36" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D36" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E36" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G36" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H36" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I36" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J36" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K36" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L36" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M36" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N36" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#REF!</v>
+      <c r="A36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36">
+        <v>533.78543983591896</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>0.76853932584269657</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36">
+        <v>0.05</v>
+      </c>
+      <c r="K36">
+        <v>15</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -23004,79 +23653,85 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B40" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G40" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H40" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I40" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J40" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K40" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L40" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M40" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N40" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#REF!</v>
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40">
+        <v>545.35801195826696</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>0.9662921348314607</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40">
+        <v>0.05</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40">
+        <v>5</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G41" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H41" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I41" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J41" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K41" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L41" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M41" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N41" t="e">
-        <f t="shared" ca="1" si="10"/>
-        <v>#REF!</v>
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41">
+        <v>922.86312244984197</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>0.61258426966292134</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41">
+        <v>0.05</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -23084,52 +23739,158 @@
         <v>87</v>
       </c>
       <c r="B42" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="B42" ca="1" si="0">INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B14")</f>
         <v>#REF!</v>
       </c>
       <c r="C42" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="C42" ca="1" si="1">INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B15")</f>
         <v>#REF!</v>
       </c>
       <c r="D42" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="D42" ca="1" si="2">INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B16")</f>
         <v>#REF!</v>
       </c>
       <c r="E42" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="E42" ca="1" si="3">(MAX(COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!A20:A2000"),"*entertainment*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!A20:A2000"),"*tech*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!A20:A2000"),"*sport*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!A20:A2000"),"*business*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!A20:A2000"),"*politics*"))+
+MAX(COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B20:B2000"),"*entertainment*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B20:B2000"),"*tech*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B20:B2000"),"*sport*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B20:B2000"),"*business*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B20:B2000"),"*politics*"))+
+MAX(COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!C20:C2000"),"*entertainment*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!C20:C2000"),"*tech*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!C20:C2000"),"*sport*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!C20:C2000"),"*business*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!C20:C2000"),"*politics*"))+
+MAX(COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!D20:D2000"),"*entertainment*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!D20:D2000"),"*tech*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!D20:D2000"),"*sport*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!D20:D2000"),"*business*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!D20:D2000"),"*politics*"))+
+MAX(COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!E20:E2000"),"*entertainment*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!E20:E2000"),"*tech*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!E20:E2000"),"*sport*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!E20:E2000"),"*business*"),
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!E20:E2000"),"*politics*")))
+/
+(COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!A20:A2000"),"*entertainment*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!A20:A2000"),"*tech*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!A20:A2000"),"*sport*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!A20:A2000"),"*business*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!A20:A2000"),"*politics*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B20:B2000"),"*entertainment*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B20:B2000"),"*tech*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B20:B2000"),"*sport*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B20:B2000"),"*business*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B20:B2000"),"*politics*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!C20:C2000"),"*entertainment*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!C20:C2000"),"*tech*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!C20:C2000"),"*sport*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!C20:C2000"),"*business*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!C20:C2000"),"*politics*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!D20:D2000"),"*entertainment*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!D20:D2000"),"*tech*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!D20:D2000"),"*sport*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!D20:D2000"),"*business*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!D20:D2000"),"*politics*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!E20:E2000"),"*entertainment*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!E20:E2000"),"*tech*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!E20:E2000"),"*sport*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!E20:E2000"),"*business*")+
+COUNTIF(INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!E20:E2000"),"*politics*"))</f>
         <v>#REF!</v>
       </c>
       <c r="G42" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="G42" ca="1" si="4">INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B4")</f>
         <v>#REF!</v>
       </c>
       <c r="H42" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="H42" ca="1" si="5">INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B5")</f>
         <v>#REF!</v>
       </c>
       <c r="I42" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="I42" ca="1" si="6">INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B6")</f>
         <v>#REF!</v>
       </c>
       <c r="J42" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="J42" ca="1" si="7">INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B7")</f>
         <v>#REF!</v>
       </c>
       <c r="K42" t="e">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="K42" ca="1" si="8">INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B8")</f>
         <v>#REF!</v>
       </c>
       <c r="L42" t="e">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="L42" ca="1" si="9">INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B9")</f>
         <v>#REF!</v>
       </c>
       <c r="M42" t="e">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="M42" ca="1" si="10">INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B10")</f>
         <v>#REF!</v>
       </c>
       <c r="N42" t="e">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="N42" ca="1" si="11">INDIRECT("'["&amp;$A42&amp;".csv]"&amp;$A42&amp;"'!B11")</f>
         <v>#REF!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46">
+        <f>AVERAGE(C2:C6)</f>
+        <v>771.61924789461079</v>
+      </c>
+      <c r="C46">
+        <f>_xlfn.STDEV.P(C2:C6)</f>
+        <v>18.93213605147924</v>
+      </c>
+      <c r="D46">
+        <f>MAX(C2:C6)</f>
+        <v>781.77103030000001</v>
+      </c>
+      <c r="E46">
+        <f>MIN(C2:C6)</f>
+        <v>733.78971581930602</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47">
+        <f>AVERAGE(E2:E6)</f>
+        <v>0.79838202247191004</v>
+      </c>
+      <c r="C47">
+        <f>_xlfn.STDEV.P(E2:E6)</f>
+        <v>1.2280770376703673E-2</v>
+      </c>
+      <c r="D47">
+        <f>MAX(E2:E6)</f>
+        <v>0.8202247191011236</v>
+      </c>
+      <c r="E47">
+        <f>MIN(E2:E6)</f>
+        <v>0.78741573033707868</v>
       </c>
     </row>
   </sheetData>
@@ -23140,10 +23901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="Q93" sqref="Q93"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23152,9 +23913,10 @@
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23162,7 +23924,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -23171,7 +23933,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
@@ -23186,12 +23948,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>779.14678260000005</v>
@@ -23230,12 +23992,12 @@
         <v>0.51191102975080294</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>512.68947549999996</v>
@@ -23274,12 +24036,12 @@
         <v>0.47959550561797759</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>903.40650259999995</v>
@@ -23288,7 +24050,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>0.2520802741067058</v>
+        <v>0.25208027410670603</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
@@ -23298,12 +24060,12 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>1208.2207430000001</v>
@@ -23322,12 +24084,12 @@
         <v>1.8055555555555554E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>1383.1885729999999</v>
@@ -23345,13 +24107,25 @@
         <f>2/60+19/3600</f>
         <v>3.861111111111111E-2</v>
       </c>
+      <c r="K6" t="s">
+        <v>149</v>
+      </c>
+      <c r="L6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7">
         <v>776.96129516561598</v>
@@ -23369,13 +24143,32 @@
         <f>1/60+32/3600</f>
         <v>2.5555555555555554E-2</v>
       </c>
+      <c r="J7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE(C2:C11)</f>
+        <v>831.58818607041633</v>
+      </c>
+      <c r="L7">
+        <f>_xlfn.STDEV.P(C2:C11)</f>
+        <v>272.67419010374573</v>
+      </c>
+      <c r="M7">
+        <f>MAX(C2:C11)</f>
+        <v>1383.1885729999999</v>
+      </c>
+      <c r="N7">
+        <f>MIN(C2:C11)</f>
+        <v>512.68947549999996</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8">
         <v>543.13908698433897</v>
@@ -23393,13 +24186,32 @@
         <f>2/60+12/3600</f>
         <v>3.6666666666666667E-2</v>
       </c>
+      <c r="J8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE(E2:E11)</f>
+        <v>0.51191102975080294</v>
+      </c>
+      <c r="L8">
+        <f>_xlfn.STDEV.P(E2:E11)</f>
+        <v>0.20861176028657707</v>
+      </c>
+      <c r="M8">
+        <f>MAX(E2:E11)</f>
+        <v>0.79460674157303368</v>
+      </c>
+      <c r="N8">
+        <f>MIN(E2:E11)</f>
+        <v>0.24815361890694199</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9">
         <v>785.13601618330699</v>
@@ -23418,12 +24230,12 @@
         <v>2.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10">
         <v>523.78979056093704</v>
@@ -23442,12 +24254,12 @@
         <v>2.9722222222222223E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11">
         <v>900.203595109964</v>
@@ -23456,7 +24268,7 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>0.2481536189069424</v>
+        <v>0.24815361890694199</v>
       </c>
       <c r="G11" t="s">
         <v>43</v>
@@ -23465,13 +24277,23 @@
         <f>58/3600</f>
         <v>1.6111111111111111E-2</v>
       </c>
+      <c r="L11">
+        <f>(L7-'Rekap GA'!C46)/'Rekap GA'!C46</f>
+        <v>13.402716595861389</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f>(L8-'Rekap GA'!C47)/'Rekap GA'!C47</f>
+        <v>15.986862703850289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13">
         <v>1747.12982465132</v>
@@ -23490,12 +24312,12 @@
         <v>0.10777777777777778</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14">
         <v>1752.1803749348201</v>
@@ -23514,12 +24336,12 @@
         <v>5.9444444444444446E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15">
         <v>1746.62037574086</v>
@@ -23538,12 +24360,12 @@
         <v>7.9444444444444443E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16">
         <v>1751.2148903991599</v>
@@ -23564,10 +24386,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17">
         <v>1747.8025161983901</v>
@@ -23588,10 +24410,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18">
         <v>1749.1209674223401</v>
@@ -23612,10 +24434,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19">
         <v>1746.79393129595</v>
@@ -23636,10 +24458,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20">
         <v>1746.06285493419</v>
@@ -23660,10 +24482,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
         <v>126</v>
-      </c>
-      <c r="B21" t="s">
-        <v>127</v>
       </c>
       <c r="C21">
         <v>1738.0837646998</v>
@@ -23684,10 +24506,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
         <v>128</v>
-      </c>
-      <c r="B22" t="s">
-        <v>129</v>
       </c>
       <c r="C22">
         <v>1747.27221695199</v>
@@ -23800,42 +24622,58 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28">
-        <v>1.0926666666666667</v>
-      </c>
-      <c r="D28" t="s">
+        <v>1.09266666666667</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E28">
-        <v>771.61924789461079</v>
+        <v>7.7161924789461098</v>
       </c>
       <c r="F28">
         <v>4.5999999999999996</v>
       </c>
       <c r="G28">
-        <v>0.79838202247191004</v>
+        <v>0.79838200000000004</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29">
+        <v>2.4472222222222201E-2</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C29">
-        <v>2.4472222222222222E-2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>133</v>
-      </c>
       <c r="E29">
-        <v>831.58818607041633</v>
+        <v>8.3158818607041596</v>
       </c>
       <c r="F29">
         <v>11.5</v>
       </c>
       <c r="G29">
-        <v>0.51191102975080294</v>
+        <v>0.511911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f>(G28-G29)/G29</f>
+        <v>0.55961094799681976</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -23848,8 +24686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23867,7 +24705,7 @@
       </c>
       <c r="D1" t="str">
         <f>'Rekap GA'!C1</f>
-        <v>intercluster</v>
+        <v>intracluster</v>
       </c>
       <c r="E1" t="str">
         <f>'Rekap GA'!D1</f>
@@ -24019,6 +24857,10 @@
       <c r="C10">
         <f>2+25/60+13/3600</f>
         <v>2.4202777777777778</v>
+      </c>
+      <c r="E10">
+        <f>(F3-F4)/F4</f>
+        <v>6.9218731190562113E-2</v>
       </c>
     </row>
   </sheetData>
@@ -24032,8 +24874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24051,7 +24893,7 @@
       </c>
       <c r="D1" t="str">
         <f>'Rekap GA'!C1</f>
-        <v>intercluster</v>
+        <v>intracluster</v>
       </c>
       <c r="E1" t="str">
         <f>'Rekap GA'!D1</f>
@@ -24171,7 +25013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -24190,7 +25032,7 @@
       </c>
       <c r="D1" t="str">
         <f>'Rekap GA'!C1</f>
-        <v>intercluster</v>
+        <v>intracluster</v>
       </c>
       <c r="E1" t="str">
         <f>'Rekap GA'!D1</f>
@@ -24210,7 +25052,7 @@
         <v>1.6507222222222222</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2">
         <f>AVERAGE('Rekap GA'!C22:C26)</f>
@@ -24258,7 +25100,7 @@
         <v>1.5662777777777777</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4">
         <f>AVERAGE('Rekap GA'!C27:C31)</f>
@@ -24355,7 +25197,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24373,7 +25215,7 @@
       </c>
       <c r="D1" t="str">
         <f>'Rekap GA'!C1</f>
-        <v>intercluster</v>
+        <v>intracluster</v>
       </c>
       <c r="E1" t="str">
         <f>'Rekap GA'!D1</f>
@@ -24390,22 +25232,22 @@
       </c>
       <c r="B2">
         <f>AVERAGE(B6:B10)</f>
-        <v>1.6507222222222222</v>
+        <v>5.9633888888888889</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" t="e">
-        <f ca="1">AVERAGE('Rekap GA'!C32:C36)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" t="e">
-        <f ca="1">AVERAGE('Rekap GA'!D32:D36)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" t="e">
-        <f ca="1">AVERAGE('Rekap GA'!E32:E36)</f>
-        <v>#REF!</v>
+        <v>147</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE('Rekap GA'!C32:C36)</f>
+        <v>679.79775322582884</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE('Rekap GA'!D32:D36)</f>
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE('Rekap GA'!E32:E36)</f>
+        <v>0.826247191011236</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -24438,22 +25280,22 @@
       </c>
       <c r="B4">
         <f>AVERAGE(C6:C10)</f>
-        <v>2.3052777777777775</v>
+        <v>2.0817777777777779</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D4">
         <f>AVERAGE('Rekap GA'!C37:C41)</f>
-        <v>1536.1521489346867</v>
+        <v>1215.3355162424336</v>
       </c>
       <c r="E4">
         <f>AVERAGE('Rekap GA'!D37:D41)</f>
-        <v>6.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <f>AVERAGE('Rekap GA'!E37:E41)</f>
-        <v>0.35220973782771531</v>
+        <v>0.52710112359550565</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -24462,8 +25304,8 @@
         <v>1.0358333333333334</v>
       </c>
       <c r="B6">
-        <f>2+11/60+4/3600</f>
-        <v>2.1844444444444444</v>
+        <f>5+55/60+40/3600</f>
+        <v>5.927777777777778</v>
       </c>
       <c r="C6">
         <f>2+5/60+57/3600</f>
@@ -24476,8 +25318,8 @@
         <v>1.0841666666666665</v>
       </c>
       <c r="B7">
-        <f>1+14/60+37/3600</f>
-        <v>1.2436111111111112</v>
+        <f>6+3/60+59/3600</f>
+        <v>6.0663888888888886</v>
       </c>
       <c r="C7">
         <f>2+16/60+44/3600</f>
@@ -24490,8 +25332,8 @@
         <v>1.0252777777777777</v>
       </c>
       <c r="B8">
-        <f>1+54/60+46/3600</f>
-        <v>1.9127777777777777</v>
+        <f>6+18/60+24/3600</f>
+        <v>6.3066666666666666</v>
       </c>
       <c r="C8">
         <f>2+32/60+16/3600</f>
@@ -24504,8 +25346,12 @@
         <v>1.1558333333333333</v>
       </c>
       <c r="B9">
-        <f>1+1/60+17/3600</f>
-        <v>1.0213888888888889</v>
+        <f>5+42/60+27/3600</f>
+        <v>5.7075000000000005</v>
+      </c>
+      <c r="C9">
+        <f>2+3/60+35/3600</f>
+        <v>2.0597222222222222</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -24514,8 +25360,16 @@
         <v>1.162222222222222</v>
       </c>
       <c r="B10">
-        <f>1+53/60+29/3600</f>
-        <v>1.8913888888888888</v>
+        <f>5+48/60+31/3600</f>
+        <v>5.8086111111111105</v>
+      </c>
+      <c r="C10">
+        <f>1+26/60+0/3600</f>
+        <v>1.4333333333333333</v>
+      </c>
+      <c r="E10">
+        <f>(F3-F4)/F4</f>
+        <v>0.5146657571623463</v>
       </c>
     </row>
   </sheetData>
